--- a/4_資源庫路徑_補充.xlsx
+++ b/4_資源庫路徑_補充.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250701 空大/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250708_Auto_Tronc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88014F6D-D6B3-254A-958D-A93E2A71F9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B2863-34DE-BC49-91C6-B5E2A0B74A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5940" yWindow="3380" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課程清單" sheetId="1" r:id="rId1"/>
@@ -309,7 +309,8 @@
     <t>https://wg.tronclass.com/api/uploads/scorm/67?sco=</t>
   </si>
   <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/68?sco=</t>
+    <t>https://wg.tronclass.com/api/uploads/scorm/69?sco=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="186" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="186" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/4_資源庫路徑_補充.xlsx
+++ b/4_資源庫路徑_補充.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250708_Auto_Tronc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B2863-34DE-BC49-91C6-B5E2A0B74A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9B4E5-9C5E-6F41-B839-3B6E7BCFBDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="3380" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課程清單" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web</t>
   </si>
   <si>
-    <t>merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest_YT_web_20240830.xml</t>
+    <t>merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-4 輕鬆學會日語50音-OK</t>
@@ -67,7 +67,7 @@
     <t>merged_projects/1-4 輕鬆學會日語50音-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest_10045221.xml</t>
+    <t>merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-6 你就是媒體-OK</t>
@@ -241,76 +241,73 @@
     <t>merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量/imsmanifest.xml</t>
   </si>
   <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/46?sco=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/47?sco=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/48?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/49?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/50?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/51?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/52?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/53?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/54?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/55?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/56?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/57?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/58?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/59?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/60?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/61?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/62?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/63?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/64?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/65?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/66?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/67?sco=</t>
-  </si>
-  <si>
-    <t>https://wg.tronclass.com/api/uploads/scorm/69?sco=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>https://staging.tronclass.com/api/uploads/scorm/73?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/74?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/75?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/76?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/77?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/78?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/79?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/80?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/81?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/82?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/83?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/84?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/85?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/86?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/87?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/88?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/89?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/90?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/91?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/92?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/93?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/94?sco=</t>
+  </si>
+  <si>
+    <t>https://staging.tronclass.com/api/uploads/scorm/95?sco=</t>
   </si>
 </sst>
 </file>
@@ -329,7 +326,6 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -375,13 +371,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -687,14 +680,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="186" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="83.59765625" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
   </cols>
@@ -727,11 +720,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>74</v>
       </c>
       <c r="C3" t="s">
@@ -755,11 +748,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>76</v>
       </c>
       <c r="C5" t="s">
@@ -783,11 +776,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>78</v>
       </c>
       <c r="C7" t="s">
@@ -811,11 +804,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>80</v>
       </c>
       <c r="C9" t="s">
@@ -839,11 +832,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>82</v>
       </c>
       <c r="C11" t="s">
@@ -867,11 +860,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>84</v>
       </c>
       <c r="C13" t="s">
@@ -895,11 +888,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>86</v>
       </c>
       <c r="C15" t="s">
@@ -923,11 +916,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>88</v>
       </c>
       <c r="C17" t="s">
@@ -951,11 +944,11 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>90</v>
       </c>
       <c r="C19" t="s">
@@ -979,11 +972,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>92</v>
       </c>
       <c r="C21" t="s">
@@ -1007,11 +1000,11 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>94</v>
       </c>
       <c r="C23" t="s">

--- a/4_資源庫路徑_補充.xlsx
+++ b/4_資源庫路徑_補充.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250708_Auto_Tronc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAD9B4E5-9C5E-6F41-B839-3B6E7BCFBDB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DEBBF-CD2F-F944-8704-6479F8FCEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,208 +37,208 @@
     <t>1-1 生活化的資料科學-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-1 生活化的資料科學-OK/WEB</t>
-  </si>
-  <si>
-    <t>merged_projects/1-1 生活化的資料科學-OK/WEB/imsmanifest.xml</t>
+    <t>2_merged_projects/1-1 生活化的資料科學-OK/WEB</t>
+  </si>
+  <si>
+    <t>2_merged_projects/1-1 生活化的資料科學-OK/WEB/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-2 生成式AI與提示工程-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118</t>
-  </si>
-  <si>
-    <t>merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118/imsmanifest.xml</t>
+    <t>2_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118</t>
+  </si>
+  <si>
+    <t>2_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-3 我的未來學習-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web</t>
-  </si>
-  <si>
-    <t>merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest.xml</t>
+    <t>2_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web</t>
+  </si>
+  <si>
+    <t>2_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-4 輕鬆學會日語50音-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-4 輕鬆學會日語50音-OK</t>
-  </si>
-  <si>
-    <t>merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest.xml</t>
+    <t>2_merged_projects/1-4 輕鬆學會日語50音-OK</t>
+  </si>
+  <si>
+    <t>2_merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-6 你就是媒體-OK</t>
   </si>
   <si>
-    <t>merged_projects/1-6 你就是媒體-OK/你就是媒體_710093</t>
-  </si>
-  <si>
-    <t>merged_projects/1-6 你就是媒體-OK/你就是媒體_710093/imsmanifest.xml</t>
+    <t>2_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093</t>
+  </si>
+  <si>
+    <t>2_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-1 環境學概論-OK</t>
   </si>
   <si>
-    <t>merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系</t>
-  </si>
-  <si>
-    <t>merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系/imsmanifest.xml</t>
+    <t>2_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系</t>
+  </si>
+  <si>
+    <t>2_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-2 非營利組織管理-OK</t>
   </si>
   <si>
-    <t>merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)</t>
-  </si>
-  <si>
-    <t>merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)/imsmanifest.xml</t>
+    <t>2_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)</t>
+  </si>
+  <si>
+    <t>2_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-3 服務創新與管理-OK</t>
   </si>
   <si>
-    <t>merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111</t>
-  </si>
-  <si>
-    <t>merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111/imsmanifest.xml</t>
+    <t>2_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111</t>
+  </si>
+  <si>
+    <t>2_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-1 心理學_OK</t>
   </si>
   <si>
-    <t>merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827</t>
-  </si>
-  <si>
-    <t>merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827/imsmanifest.xml</t>
+    <t>2_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827</t>
+  </si>
+  <si>
+    <t>2_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-2 婚姻與家人關係-OK</t>
   </si>
   <si>
-    <t>merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量</t>
-  </si>
-  <si>
-    <t>merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量/imsmanifest.xml</t>
+    <t>2_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量</t>
+  </si>
+  <si>
+    <t>2_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-3 諮詢實務與運用-OK</t>
   </si>
   <si>
-    <t>merged_projects/3-3 諮詢實務與運用-OK/WEB</t>
-  </si>
-  <si>
-    <t>merged_projects/3-3 諮詢實務與運用-OK/WEB/imsmanifest.xml</t>
+    <t>2_merged_projects/3-3 諮詢實務與運用-OK/WEB</t>
+  </si>
+  <si>
+    <t>2_merged_projects/3-3 諮詢實務與運用-OK/WEB/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-1 家庭概論-OK</t>
   </si>
   <si>
-    <t>merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061</t>
-  </si>
-  <si>
-    <t>merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061/imsmanifest.xml</t>
+    <t>2_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061</t>
+  </si>
+  <si>
+    <t>2_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-2 家庭生活教育導論-OK</t>
   </si>
   <si>
-    <t>merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050</t>
-  </si>
-  <si>
-    <t>merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050/imsmanifest.xml</t>
+    <t>2_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050</t>
+  </si>
+  <si>
+    <t>2_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-3 兒童發展與保育_OK</t>
   </si>
   <si>
-    <t>merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046</t>
-  </si>
-  <si>
-    <t>merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046/imsmanifest.xml</t>
+    <t>2_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046</t>
+  </si>
+  <si>
+    <t>2_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-4 嬰幼兒健康照護與活動設計_OK</t>
   </si>
   <si>
-    <t>merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量</t>
-  </si>
-  <si>
-    <t>merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量/imsmanifest.xml</t>
+    <t>2_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量</t>
+  </si>
+  <si>
+    <t>2_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-1 理財規劃與實務_OK</t>
   </si>
   <si>
-    <t>merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070</t>
-  </si>
-  <si>
-    <t>merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070/imsmanifest.xml</t>
+    <t>2_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070</t>
+  </si>
+  <si>
+    <t>2_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-2 民法(財產法篇_總則、債、物權)_OK</t>
   </si>
   <si>
-    <t>merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量</t>
-  </si>
-  <si>
-    <t>merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量/imsmanifest.xml</t>
+    <t>2_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量</t>
+  </si>
+  <si>
+    <t>2_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-3 貨幣銀行學_OK</t>
   </si>
   <si>
-    <t>merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂</t>
-  </si>
-  <si>
-    <t>merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂/imsmanifest.xml</t>
+    <t>2_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂</t>
+  </si>
+  <si>
+    <t>2_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-4 不動產經濟法規_OK</t>
   </si>
   <si>
-    <t>merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081</t>
-  </si>
-  <si>
-    <t>merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081/imsmanifest.xml</t>
+    <t>2_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081</t>
+  </si>
+  <si>
+    <t>2_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-1 遊程規劃_OK</t>
   </si>
   <si>
-    <t>merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026</t>
-  </si>
-  <si>
-    <t>merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026/imsmanifest.xml</t>
+    <t>2_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026</t>
+  </si>
+  <si>
+    <t>2_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-2 觀光餐旅人力資源管理_OK</t>
   </si>
   <si>
-    <t>merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075</t>
-  </si>
-  <si>
-    <t>merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075/imsmanifest.xml</t>
+    <t>2_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075</t>
+  </si>
+  <si>
+    <t>2_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-3 顧客服務管理_OK</t>
   </si>
   <si>
-    <t>merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量</t>
-  </si>
-  <si>
-    <t>merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量/imsmanifest.xml</t>
+    <t>2_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量</t>
+  </si>
+  <si>
+    <t>2_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-4 台灣之美_OK</t>
   </si>
   <si>
-    <t>merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量</t>
-  </si>
-  <si>
-    <t>merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量/imsmanifest.xml</t>
+    <t>2_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量</t>
+  </si>
+  <si>
+    <t>2_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>https://staging.tronclass.com/api/uploads/scorm/73?sco=</t>
@@ -681,7 +681,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/4_資源庫路徑_補充.xlsx
+++ b/4_資源庫路徑_補充.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dominic/250708_Auto_Tronc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DEBBF-CD2F-F944-8704-6479F8FCEFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E74CC0-0949-C848-859D-61A9FF13946A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="2860" windowWidth="34560" windowHeight="20080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課程清單" sheetId="1" r:id="rId1"/>
@@ -37,277 +37,278 @@
     <t>1-1 生活化的資料科學-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/1-1 生活化的資料科學-OK/WEB</t>
-  </si>
-  <si>
-    <t>2_merged_projects/1-1 生活化的資料科學-OK/WEB/imsmanifest.xml</t>
+    <t>02_merged_projects/1-1 生活化的資料科學-OK/WEB</t>
+  </si>
+  <si>
+    <t>02_merged_projects/1-1 生活化的資料科學-OK/WEB/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-2 生成式AI與提示工程-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118</t>
-  </si>
-  <si>
-    <t>2_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118/imsmanifest.xml</t>
+    <t>02_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118</t>
+  </si>
+  <si>
+    <t>02_merged_projects/1-2 生成式AI與提示工程-OK/113下(web)生成式AI與提示工程_760118/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-3 我的未來學習-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web</t>
-  </si>
-  <si>
-    <t>2_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest.xml</t>
+    <t>02_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web</t>
+  </si>
+  <si>
+    <t>02_merged_projects/1-3 我的未來學習-OK/780066_我的未來學習-web/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-4 輕鬆學會日語50音-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/1-4 輕鬆學會日語50音-OK</t>
-  </si>
-  <si>
-    <t>2_merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest.xml</t>
+    <t>02_merged_projects/1-4 輕鬆學會日語50音-OK</t>
+  </si>
+  <si>
+    <t>02_merged_projects/1-4 輕鬆學會日語50音-OK/imsmanifest.xml</t>
   </si>
   <si>
     <t>1-6 你就是媒體-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093</t>
-  </si>
-  <si>
-    <t>2_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093/imsmanifest.xml</t>
+    <t>02_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093</t>
+  </si>
+  <si>
+    <t>02_merged_projects/1-6 你就是媒體-OK/你就是媒體_710093/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-1 環境學概論-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系</t>
-  </si>
-  <si>
-    <t>2_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系/imsmanifest.xml</t>
+    <t>02_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系</t>
+  </si>
+  <si>
+    <t>02_merged_projects/2-1 環境學概論-OK/500201-環境學概論_影音_生活科學系/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-2 非營利組織管理-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)</t>
-  </si>
-  <si>
-    <t>2_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)/imsmanifest.xml</t>
+    <t>02_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)</t>
+  </si>
+  <si>
+    <t>02_merged_projects/2-2 非營利組織管理-OK/400116-非營利組織管理_影音加語音_公共行政學系_有評量_(缺04)/imsmanifest.xml</t>
   </si>
   <si>
     <t>2-3 服務創新與管理-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111</t>
-  </si>
-  <si>
-    <t>2_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111/imsmanifest.xml</t>
+    <t>02_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111</t>
+  </si>
+  <si>
+    <t>02_merged_projects/2-3 服務創新與管理-OK/113上_服務創新與管理_760111/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-1 心理學_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827</t>
-  </si>
-  <si>
-    <t>2_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827/imsmanifest.xml</t>
+    <t>02_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827</t>
+  </si>
+  <si>
+    <t>02_merged_projects/3-1 心理學_OK/109上_編修(Flowolayer)心理學-20200827/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-2 婚姻與家人關係-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量</t>
-  </si>
-  <si>
-    <t>2_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量/imsmanifest.xml</t>
+    <t>02_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量</t>
+  </si>
+  <si>
+    <t>02_merged_projects/3-2 婚姻與家人關係-OK/750011-婚姻與家人關係_生活-FLOW (R)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>3-3 諮詢實務與運用-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/3-3 諮詢實務與運用-OK/WEB</t>
-  </si>
-  <si>
-    <t>2_merged_projects/3-3 諮詢實務與運用-OK/WEB/imsmanifest.xml</t>
+    <t>02_merged_projects/3-3 諮詢實務與運用-OK/WEB</t>
+  </si>
+  <si>
+    <t>02_merged_projects/3-3 諮詢實務與運用-OK/WEB/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-1 家庭概論-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061</t>
-  </si>
-  <si>
-    <t>2_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061/imsmanifest.xml</t>
+    <t>02_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061</t>
+  </si>
+  <si>
+    <t>02_merged_projects/4-1 家庭概論-OK/(Flowplayer)家庭概論_750061/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-2 家庭生活教育導論-OK</t>
   </si>
   <si>
-    <t>2_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050</t>
-  </si>
-  <si>
-    <t>2_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050/imsmanifest.xml</t>
+    <t>02_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050</t>
+  </si>
+  <si>
+    <t>02_merged_projects/4-2 家庭生活教育導論-OK/(FLOW)家庭生活教育導論_750050/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-3 兒童發展與保育_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046</t>
-  </si>
-  <si>
-    <t>2_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046/imsmanifest.xml</t>
+    <t>02_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046</t>
+  </si>
+  <si>
+    <t>02_merged_projects/4-3 兒童發展與保育_OK/(FLOW)兒童發展與保育_750046/imsmanifest.xml</t>
   </si>
   <si>
     <t>4-4 嬰幼兒健康照護與活動設計_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量</t>
-  </si>
-  <si>
-    <t>2_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量/imsmanifest.xml</t>
+    <t>02_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量</t>
+  </si>
+  <si>
+    <t>02_merged_projects/4-4 嬰幼兒健康照護與活動設計_OK/750004-嬰幼兒健康照護與活動設計_生科-FLOW (TV)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-1 理財規劃與實務_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070</t>
-  </si>
-  <si>
-    <t>2_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070/imsmanifest.xml</t>
+    <t>02_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070</t>
+  </si>
+  <si>
+    <t>02_merged_projects/5-1 理財規劃與實務_OK/(FLOW)理財規劃與實務_730070/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-2 民法(財產法篇_總則、債、物權)_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量</t>
-  </si>
-  <si>
-    <t>2_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量/imsmanifest.xml</t>
+    <t>02_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量</t>
+  </si>
+  <si>
+    <t>02_merged_projects/5-2 民法(財產法篇_總則、債、物權)_OK/720019-民法(財產法篇：總則、債、物權)_語音_社會科學系_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-3 貨幣銀行學_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂</t>
-  </si>
-  <si>
-    <t>2_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂/imsmanifest.xml</t>
+    <t>02_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂</t>
+  </si>
+  <si>
+    <t>02_merged_projects/5-3 貨幣銀行學_OK/112(下)_貨幣銀行學-FLOW_730023__修訂/imsmanifest.xml</t>
   </si>
   <si>
     <t>5-4 不動產經濟法規_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081</t>
-  </si>
-  <si>
-    <t>2_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081/imsmanifest.xml</t>
+    <t>02_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081</t>
+  </si>
+  <si>
+    <t>02_merged_projects/5-4 不動產經濟法規_OK/111上(FLOW)不動產經紀法規_730081/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-1 遊程規劃_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026</t>
-  </si>
-  <si>
-    <t>2_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026/imsmanifest.xml</t>
+    <t>02_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026</t>
+  </si>
+  <si>
+    <t>02_merged_projects/6-1 遊程規劃_OK/(F)_遊程規劃_750026/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-2 觀光餐旅人力資源管理_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075</t>
-  </si>
-  <si>
-    <t>2_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075/imsmanifest.xml</t>
+    <t>02_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075</t>
+  </si>
+  <si>
+    <t>02_merged_projects/6-2 觀光餐旅人力資源管理_OK/113下_觀光餐旅人力資源管理_750075/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-3 顧客服務管理_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量</t>
-  </si>
-  <si>
-    <t>2_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量/imsmanifest.xml</t>
+    <t>02_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量</t>
+  </si>
+  <si>
+    <t>02_merged_projects/6-3 顧客服務管理_OK/300916-顧客服務管理_商學-FLOW (R)_有評量/imsmanifest.xml</t>
   </si>
   <si>
     <t>6-4 台灣之美_OK</t>
   </si>
   <si>
-    <t>2_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量</t>
-  </si>
-  <si>
-    <t>2_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系_無評量/imsmanifest.xml</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/73?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/74?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/75?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/76?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/77?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/78?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/79?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/80?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/81?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/82?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/83?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/84?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/85?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/86?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/87?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/88?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/89?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/90?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/91?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/92?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/93?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/94?sco=</t>
-  </si>
-  <si>
-    <t>https://staging.tronclass.com/api/uploads/scorm/95?sco=</t>
+    <t>02_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系</t>
+  </si>
+  <si>
+    <t>02_merged_projects/6-4 台灣之美_OK/710058-台灣之美－建築_影音_人文學系/imsmanifest.xml</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/72?sco=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/73?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/74?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/75?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/76?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/77?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/78?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/79?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/80?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/81?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/82?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/83?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/84?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/85?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/86?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/87?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/88?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/89?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/90?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/91?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/92?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/93?sco=</t>
+  </si>
+  <si>
+    <t>https://az.tronclass.com/api/uploads/scorm/94?sco=</t>
   </si>
 </sst>
 </file>
@@ -326,6 +327,7 @@
       <b/>
       <sz val="11"/>
       <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -681,13 +683,13 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B24"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="2" max="2" width="73.796875" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
     <col min="4" max="4" width="70" customWidth="1"/>
   </cols>
